--- a/ProjectApopalypse_Unity/Excel/Yolo.xlsx
+++ b/ProjectApopalypse_Unity/Excel/Yolo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectApopalypse\ProjectApopalypse_Unity\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E5143C-DDC7-40BD-B819-FB924171118E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D0126D-A996-4015-93C9-6B8EFCACEF1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C1DB6C17-836D-4EFD-91EA-180EF797A563}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Hai</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Ho why?</t>
+  </si>
+  <si>
+    <t>curHealth</t>
+  </si>
+  <si>
+    <t>curDam</t>
   </si>
 </sst>
 </file>
@@ -388,32 +394,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99749392-E020-4C4D-9E07-6A73761AA19C}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
